--- a/Herramientas y Documentacion/Documentación Permisos.xlsx
+++ b/Herramientas y Documentacion/Documentación Permisos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12345"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Metodos permisos inserts" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="232">
   <si>
     <t>Servicio / Interfaz</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>/bookings/bookingInfo/search</t>
-  </si>
-  <si>
-    <t>POST,GET</t>
   </si>
   <si>
     <t>bookingsInRangeQuery</t>
@@ -729,8 +726,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -787,13 +784,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -802,9 +792,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,13 +810,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +846,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -873,7 +863,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,7 +893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,6 +902,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,25 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,30 +948,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1005,19 +960,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,25 +1008,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,55 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,15 +1187,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1231,6 +1219,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1242,19 +1239,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,127 +1260,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1747,8 +1744,8 @@
   <sheetPr/>
   <dimension ref="A1:J277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1756,9 +1753,12 @@
     <col min="1" max="1" width="77.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.0285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.52380952380952" style="12" customWidth="1"/>
-    <col min="4" max="6" width="9.23809523809524" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1809523809524" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.752380952381" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.9428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.4" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.4571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3238095238095" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.752380952381" style="1" customWidth="1"/>
     <col min="10" max="10" width="162.67619047619" style="13" customWidth="1"/>
     <col min="11" max="16384" width="11.4285714285714" style="1"/>
   </cols>
@@ -2359,7 +2359,7 @@
         <v>44</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J27" s="13" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),IF(A27&lt;&gt;"",CONCATENATE("-- ",A27),""))</f>
@@ -2371,7 +2371,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="3"/>
@@ -2384,10 +2384,10 @@
         <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J28" s="13" t="str">
         <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),IF(A28&lt;&gt;"",CONCATENATE("-- ",A28),""))</f>
@@ -2399,7 +2399,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="3"/>
@@ -2412,10 +2412,10 @@
         <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J29" s="13" t="str">
         <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),IF(A29&lt;&gt;"",CONCATENATE("-- ",A29),""))</f>
@@ -2427,14 +2427,14 @@
         <v>37</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="16">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" s="13" t="str">
         <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),IF(A30&lt;&gt;"",CONCATENATE("-- ",A30),""))</f>
@@ -2446,14 +2446,14 @@
         <v>37</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="16">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="13" t="str">
         <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),IF(A31&lt;&gt;"",CONCATENATE("-- ",A31),""))</f>
@@ -2465,7 +2465,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="3"/>
@@ -2478,10 +2478,10 @@
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J32" s="13" t="str">
         <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),IF(A32&lt;&gt;"",CONCATENATE("-- ",A32),""))</f>
@@ -2493,14 +2493,14 @@
         <v>37</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="16">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="13" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),IF(A33&lt;&gt;"",CONCATENATE("-- ",A33),""))</f>
@@ -2512,7 +2512,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="12">
         <f t="shared" si="3"/>
@@ -2525,10 +2525,10 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J34" s="13" t="str">
         <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),IF(A34&lt;&gt;"",CONCATENATE("-- ",A34),""))</f>
@@ -2540,14 +2540,14 @@
         <v>37</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="16">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="13" t="str">
         <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),IF(A35&lt;&gt;"",CONCATENATE("-- ",A35),""))</f>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37" s="13" t="str">
         <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),IF(A37&lt;&gt;"",CONCATENATE("-- ",A37),""))</f>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="str">
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Query"),"")</f>
@@ -2588,10 +2588,10 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J38" s="13" t="str">
         <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),IF(A38&lt;&gt;"",CONCATENATE("-- ",A38),""))</f>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="1" t="str">
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Insert"),"")</f>
@@ -2617,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>18</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Delete"),"")</f>
@@ -2646,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>21</v>
@@ -2658,19 +2658,18 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="16">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>50</v>
+      </c>
       <c r="J41" s="13" t="str">
         <f>IF(B41&lt;&gt;"",CONCATENATE(inicio_consulta,C41,mid_consulta,A41,B41,fin_consulta),IF(A41&lt;&gt;"",CONCATENATE("-- ",A41),""))</f>
         <v>INSERT INTO tserver_permission VALUES (30,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingExtraServicePriceUnitsTotalQuery');</v>
@@ -2678,19 +2677,18 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="16">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>50</v>
+      </c>
       <c r="J42" s="13" t="str">
         <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),IF(A42&lt;&gt;"",CONCATENATE("-- ",A42),""))</f>
         <v>INSERT INTO tserver_permission VALUES (31,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/extraServicesNameDescriptionUnitsPriceDateQuery');</v>
@@ -2704,7 +2702,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" s="13" t="str">
         <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),IF(A44&lt;&gt;"",CONCATENATE("-- ",A44),""))</f>
@@ -2713,7 +2711,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="str">
         <f>IF(A44&lt;&gt;"",CONCATENATE(A44,"Query"),"")</f>
@@ -2730,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>14</v>
@@ -2748,7 +2746,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J47" s="13" t="str">
         <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),IF(A47&lt;&gt;"",CONCATENATE("-- ",A47),""))</f>
@@ -2757,7 +2755,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1" t="str">
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Query"),"")</f>
@@ -2771,10 +2769,10 @@
         <v>24</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>14</v>
@@ -2786,7 +2784,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="1" t="str">
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Insert"),"")</f>
@@ -2800,10 +2798,10 @@
         <v>24</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>18</v>
@@ -2815,7 +2813,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="str">
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Delete"),"")</f>
@@ -2829,10 +2827,10 @@
         <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>21</v>
@@ -2850,7 +2848,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J52" s="13" t="str">
         <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),IF(A52&lt;&gt;"",CONCATENATE("-- ",A52),""))</f>
@@ -2859,7 +2857,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1" t="str">
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Query"),"")</f>
@@ -2873,10 +2871,10 @@
         <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>14</v>
@@ -2888,7 +2886,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1" t="str">
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Insert"),"")</f>
@@ -2902,10 +2900,10 @@
         <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>18</v>
@@ -2917,7 +2915,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Delete"),"")</f>
@@ -2931,10 +2929,10 @@
         <v>24</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>21</v>
@@ -2952,7 +2950,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J57" s="13" t="str">
         <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),IF(A57&lt;&gt;"",CONCATENATE("-- ",A57),""))</f>
@@ -2961,7 +2959,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" s="1" t="str">
         <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Query"),"")</f>
@@ -2975,10 +2973,10 @@
         <v>24</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>14</v>
@@ -2990,10 +2988,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="12">
         <f>C58+1</f>
@@ -3003,10 +3001,10 @@
         <v>24</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>14</v>
@@ -3018,17 +3016,17 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="16">
         <f t="shared" ref="C60:C66" si="5">C59+1</f>
         <v>41</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J60" s="13" t="str">
         <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),IF(A60&lt;&gt;"",CONCATENATE("-- ",A60),""))</f>
@@ -3037,7 +3035,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="str">
         <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Delete"),"")</f>
@@ -3054,7 +3052,7 @@
         <v>16</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>21</v>
@@ -3066,10 +3064,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="12">
         <f t="shared" si="5"/>
@@ -3079,10 +3077,10 @@
         <v>24</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>18</v>
@@ -3094,10 +3092,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="12">
         <f t="shared" si="5"/>
@@ -3107,10 +3105,10 @@
         <v>24</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>18</v>
@@ -3122,10 +3120,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="12">
         <f t="shared" si="5"/>
@@ -3138,7 +3136,7 @@
         <v>16</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>20</v>
@@ -3150,10 +3148,10 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="5"/>
@@ -3163,10 +3161,10 @@
         <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>20</v>
@@ -3178,10 +3176,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="12">
         <f t="shared" si="5"/>
@@ -3191,10 +3189,10 @@
         <v>24</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>20</v>
@@ -3212,7 +3210,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J68" s="13" t="str">
         <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),IF(A68&lt;&gt;"",CONCATENATE("-- ",A68),""))</f>
@@ -3221,7 +3219,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Query"),"")</f>
@@ -3238,7 +3236,7 @@
         <v>16</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>14</v>
@@ -3250,7 +3248,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Insert"),"")</f>
@@ -3267,7 +3265,7 @@
         <v>16</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>18</v>
@@ -3279,7 +3277,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Update"),"")</f>
@@ -3296,7 +3294,7 @@
         <v>16</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>20</v>
@@ -3308,7 +3306,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Delete"),"")</f>
@@ -3325,7 +3323,7 @@
         <v>16</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>21</v>
@@ -3343,7 +3341,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J74" s="13" t="str">
         <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),IF(A74&lt;&gt;"",CONCATENATE("-- ",A74),""))</f>
@@ -3352,7 +3350,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Query"),"")</f>
@@ -3369,7 +3367,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>14</v>
@@ -3381,7 +3379,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Insert"),"")</f>
@@ -3395,10 +3393,10 @@
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>18</v>
@@ -3410,7 +3408,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Update"),"")</f>
@@ -3427,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>20</v>
@@ -3439,7 +3437,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Delete"),"")</f>
@@ -3453,10 +3451,10 @@
         <v>19</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>21</v>
@@ -3474,7 +3472,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J80" s="13" t="str">
         <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),IF(A80&lt;&gt;"",CONCATENATE("-- ",A80),""))</f>
@@ -3483,7 +3481,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B81" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Query"),"")</f>
@@ -3512,7 +3510,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Insert"),"")</f>
@@ -3526,7 +3524,7 @@
         <v>19</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>17</v>
@@ -3541,7 +3539,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Update"),"")</f>
@@ -3555,7 +3553,7 @@
         <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>17</v>
@@ -3570,7 +3568,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Delete"),"")</f>
@@ -3584,7 +3582,7 @@
         <v>19</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>17</v>
@@ -3605,7 +3603,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J86" s="13" t="str">
         <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),IF(A86&lt;&gt;"",CONCATENATE("-- ",A86),""))</f>
@@ -3614,7 +3612,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="1" t="str">
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Query"),"")</f>
@@ -3631,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>14</v>
@@ -3643,7 +3641,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" s="1" t="str">
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Insert"),"")</f>
@@ -3660,7 +3658,7 @@
         <v>12</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>18</v>
@@ -3672,10 +3670,10 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C89" s="12">
         <f t="shared" ref="C89:C90" si="9">C88+1</f>
@@ -3688,7 +3686,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>20</v>
@@ -3700,7 +3698,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="1" t="str">
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Delete"),"")</f>
@@ -3717,7 +3715,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>21</v>
@@ -3735,7 +3733,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J92" s="13" t="str">
         <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),IF(A92&lt;&gt;"",CONCATENATE("-- ",A92),""))</f>
@@ -3744,7 +3742,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B93" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Query"),"")</f>
@@ -3761,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>14</v>
@@ -3773,7 +3771,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Insert"),"")</f>
@@ -3787,10 +3785,10 @@
         <v>19</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>18</v>
@@ -3802,7 +3800,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Update"),"")</f>
@@ -3816,10 +3814,10 @@
         <v>19</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>20</v>
@@ -3831,7 +3829,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Delete"),"")</f>
@@ -3845,10 +3843,10 @@
         <v>19</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>21</v>
@@ -3860,10 +3858,10 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C97" s="12">
         <f t="shared" si="10"/>
@@ -3876,7 +3874,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>14</v>
@@ -3888,17 +3886,17 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="16">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J98" s="13" t="str">
         <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),IF(A98&lt;&gt;"",CONCATENATE("-- ",A98),""))</f>
@@ -3907,10 +3905,10 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="12">
         <f t="shared" si="10"/>
@@ -3923,7 +3921,7 @@
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>14</v>
@@ -3935,10 +3933,10 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100" s="12">
         <f t="shared" si="10"/>
@@ -3951,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>14</v>
@@ -3969,7 +3967,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J102" s="13" t="str">
         <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),IF(A102&lt;&gt;"",CONCATENATE("-- ",A102),""))</f>
@@ -3978,7 +3976,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1" t="str">
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Query"),"")</f>
@@ -3995,7 +3993,7 @@
         <v>16</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>14</v>
@@ -4007,7 +4005,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B104" s="1" t="str">
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Insert"),"")</f>
@@ -4024,7 +4022,7 @@
         <v>16</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>18</v>
@@ -4036,7 +4034,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105" s="1" t="str">
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Delete"),"")</f>
@@ -4053,7 +4051,7 @@
         <v>16</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>21</v>
@@ -4071,7 +4069,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J107" s="13" t="str">
         <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),IF(A107&lt;&gt;"",CONCATENATE("-- ",A107),""))</f>
@@ -4080,7 +4078,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B108" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Query"),"")</f>
@@ -4097,7 +4095,7 @@
         <v>16</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>14</v>
@@ -4109,7 +4107,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B109" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Insert"),"")</f>
@@ -4126,7 +4124,7 @@
         <v>16</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>18</v>
@@ -4138,7 +4136,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Update"),"")</f>
@@ -4155,7 +4153,7 @@
         <v>16</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>20</v>
@@ -4167,7 +4165,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Delete"),"")</f>
@@ -4184,7 +4182,7 @@
         <v>16</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>21</v>
@@ -4196,10 +4194,10 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C112" s="12">
         <f t="shared" si="11"/>
@@ -4209,7 +4207,7 @@
         <v>24</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>14</v>
@@ -4221,17 +4219,17 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C113" s="16">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J113" s="13" t="str">
         <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),IF(A113&lt;&gt;"",CONCATENATE("-- ",A113),""))</f>
@@ -4246,7 +4244,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J115" s="13" t="str">
         <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),IF(A115&lt;&gt;"",CONCATENATE("-- ",A115),""))</f>
@@ -4255,7 +4253,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Query"),"")</f>
@@ -4272,7 +4270,7 @@
         <v>16</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>14</v>
@@ -4284,7 +4282,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Insert"),"")</f>
@@ -4301,7 +4299,7 @@
         <v>16</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>18</v>
@@ -4313,7 +4311,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B118" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Update"),"")</f>
@@ -4330,7 +4328,7 @@
         <v>16</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>20</v>
@@ -4342,7 +4340,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B119" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Delete"),"")</f>
@@ -4359,7 +4357,7 @@
         <v>16</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>21</v>
@@ -4377,7 +4375,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J121" s="13" t="str">
         <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),IF(A121&lt;&gt;"",CONCATENATE("-- ",A121),""))</f>
@@ -4386,7 +4384,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Query"),"")</f>
@@ -4403,7 +4401,7 @@
         <v>16</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>14</v>
@@ -4415,7 +4413,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Insert"),"")</f>
@@ -4432,7 +4430,7 @@
         <v>16</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>18</v>
@@ -4444,7 +4442,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Update"),"")</f>
@@ -4461,7 +4459,7 @@
         <v>16</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>20</v>
@@ -4473,7 +4471,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Delete"),"")</f>
@@ -4490,7 +4488,7 @@
         <v>16</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>21</v>
@@ -4508,7 +4506,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J127" s="13" t="str">
         <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),IF(A127&lt;&gt;"",CONCATENATE("-- ",A127),""))</f>
@@ -4517,7 +4515,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Query"),"")</f>
@@ -4534,7 +4532,7 @@
         <v>16</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>14</v>
@@ -4546,7 +4544,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Insert"),"")</f>
@@ -4563,7 +4561,7 @@
         <v>16</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>18</v>
@@ -4575,7 +4573,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Update"),"")</f>
@@ -4592,7 +4590,7 @@
         <v>16</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>20</v>
@@ -4604,7 +4602,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Delete"),"")</f>
@@ -4621,7 +4619,7 @@
         <v>16</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>21</v>
@@ -4639,7 +4637,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J133" s="13" t="str">
         <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),IF(A133&lt;&gt;"",CONCATENATE("-- ",A133),""))</f>
@@ -4648,7 +4646,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B134" s="1" t="str">
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Query"),"")</f>
@@ -4665,7 +4663,7 @@
         <v>16</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>14</v>
@@ -4695,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>18</v>
@@ -4725,7 +4723,7 @@
         <v>16</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>20</v>
@@ -4755,7 +4753,7 @@
         <v>16</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>21</v>
@@ -4773,7 +4771,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J139" s="13" t="str">
         <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),IF(A139&lt;&gt;"",CONCATENATE("-- ",A139),""))</f>
@@ -4782,7 +4780,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140" s="1" t="str">
         <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Query"),"")</f>
@@ -4796,10 +4794,10 @@
         <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>14</v>
@@ -4826,10 +4824,10 @@
         <v>19</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>18</v>
@@ -4856,10 +4854,10 @@
         <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>20</v>
@@ -4875,7 +4873,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143" s="12">
         <f t="shared" si="18"/>
@@ -4885,10 +4883,10 @@
         <v>19</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>20</v>
@@ -4900,7 +4898,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J145" s="13" t="str">
         <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),IF(A145&lt;&gt;"",CONCATENATE("-- ",A145),""))</f>
@@ -4909,7 +4907,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146" s="1" t="str">
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Query"),"")</f>
@@ -4923,10 +4921,10 @@
         <v>19</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>14</v>
@@ -4953,10 +4951,10 @@
         <v>19</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>18</v>
@@ -4983,10 +4981,10 @@
         <v>19</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>20</v>
@@ -5013,10 +5011,10 @@
         <v>19</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>21</v>
@@ -5032,7 +5030,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C150" s="12">
         <f t="shared" si="20"/>
@@ -5042,10 +5040,10 @@
         <v>19</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>14</v>
@@ -5061,7 +5059,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C151" s="12">
         <f t="shared" si="20"/>
@@ -5071,10 +5069,10 @@
         <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>14</v>
@@ -5090,7 +5088,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C152" s="12">
         <f t="shared" si="20"/>
@@ -5100,10 +5098,10 @@
         <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>14</v>
@@ -5115,7 +5113,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J154" s="13" t="str">
         <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
@@ -5124,7 +5122,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" s="1" t="str">
         <f>IF(A154&lt;&gt;"",CONCATENATE(A154,"Query"),"")</f>
@@ -5141,7 +5139,7 @@
         <v>16</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>14</v>
@@ -5171,7 +5169,7 @@
         <v>16</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>18</v>
@@ -5187,7 +5185,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C157" s="12">
         <f t="shared" si="21"/>
@@ -5200,7 +5198,7 @@
         <v>16</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>21</v>
@@ -5224,7 +5222,7 @@
         <v>10</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C160" s="12">
         <f>C157+1</f>
@@ -5237,7 +5235,7 @@
         <v>16</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>14</v>
@@ -5249,7 +5247,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J162" s="13" t="str">
         <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),IF(A162&lt;&gt;"",CONCATENATE("-- ",A162),""))</f>
@@ -5258,10 +5256,10 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C163" s="12">
         <f>C160+1</f>
@@ -5274,7 +5272,7 @@
         <v>16</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>20</v>
@@ -5286,7 +5284,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J165" s="13" t="str">
         <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),IF(A165&lt;&gt;"",CONCATENATE("-- ",A165),""))</f>
@@ -5295,10 +5293,10 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C166" s="12">
         <f>C163+1</f>
@@ -5308,10 +5306,10 @@
         <v>19</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>14</v>
@@ -5327,7 +5325,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C167" s="12">
         <f>C166+1</f>
@@ -5337,10 +5335,10 @@
         <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>14</v>
@@ -5356,7 +5354,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C168" s="12">
         <f>C167+1</f>
@@ -5366,10 +5364,10 @@
         <v>19</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>14</v>
@@ -5385,7 +5383,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C169" s="12">
         <f t="shared" ref="C169:C177" si="23">C168+1</f>
@@ -5395,10 +5393,10 @@
         <v>19</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>14</v>
@@ -5414,7 +5412,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C170" s="12">
         <f t="shared" si="23"/>
@@ -5424,10 +5422,10 @@
         <v>19</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>14</v>
@@ -5443,7 +5441,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C171" s="12">
         <f t="shared" si="23"/>
@@ -5453,10 +5451,10 @@
         <v>19</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>14</v>
@@ -5472,7 +5470,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C172" s="12">
         <f t="shared" si="23"/>
@@ -5482,10 +5480,10 @@
         <v>19</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>14</v>
@@ -5501,7 +5499,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C173" s="12">
         <f t="shared" si="23"/>
@@ -5511,10 +5509,10 @@
         <v>19</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>14</v>
@@ -5526,7 +5524,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J175" s="13" t="str">
         <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),IF(A175&lt;&gt;"",CONCATENATE("-- ",A175),""))</f>
@@ -5535,7 +5533,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B176" s="1" t="str">
         <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Query"),"")</f>
@@ -5634,7 +5632,7 @@
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C180" s="12">
         <f t="shared" si="24"/>
@@ -6263,12 +6261,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -6276,29 +6274,29 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6306,22 +6304,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="G3" s="6">
         <v>123456</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -6330,22 +6328,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="G4" s="6">
         <v>123456</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -6354,25 +6352,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="G5" s="6">
         <v>123456</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6380,25 +6378,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="G6" s="6">
         <v>123456</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6406,25 +6404,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="G7" s="6">
         <v>123456</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6432,62 +6430,62 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="G8" s="6">
         <v>123456</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" s="6">
         <v>123456</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G10" s="6">
         <v>123456</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G11" s="6">
         <v>123456</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -6523,7 +6521,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -6536,7 +6534,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -7497,17 +7495,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Herramientas y Documentacion/Documentación Permisos.xlsx
+++ b/Herramientas y Documentacion/Documentación Permisos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView windowWidth="31245" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Metodos permisos inserts" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="235">
   <si>
     <t>Servicio / Interfaz</t>
   </si>
@@ -594,10 +594,19 @@
     <t>employeePhoto</t>
   </si>
   <si>
-    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/</t>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/</t>
+  </si>
+  <si>
+    <t>/employeephoto/employeePhoto</t>
+  </si>
+  <si>
+    <t>employeePhotoDelete</t>
   </si>
   <si>
     <t>getPicture</t>
+  </si>
+  <si>
+    <t>/employeephoto/getPicture</t>
   </si>
   <si>
     <t>ROLES</t>
@@ -725,10 +734,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -778,6 +787,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -792,8 +808,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,19 +839,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,20 +885,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -893,15 +902,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,8 +922,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,7 +939,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +999,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1059,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,109 +1095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,13 +1119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,6 +1157,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1174,30 +1207,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,19 +1248,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,127 +1269,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1744,8 +1753,8 @@
   <sheetPr/>
   <dimension ref="A1:J277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -5544,20 +5553,23 @@
         <v>121</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="J176" s="13" t="str">
         <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),IF(A176&lt;&gt;"",CONCATENATE("-- ",A176),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (121,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/employeePhotoQuery');</v>
+        <v>INSERT INTO tserver_permission VALUES (121,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/employeePhotoQuery');</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="1" t="str">
         <f>A176</f>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/</v>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/</v>
       </c>
       <c r="B177" s="1" t="str">
         <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Insert"),"")</f>
@@ -5568,85 +5580,78 @@
         <v>122</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J177" s="13" t="str">
         <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),IF(A177&lt;&gt;"",CONCATENATE("-- ",A177),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (122,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/employeePhotoInsert');</v>
+        <v>INSERT INTO tserver_permission VALUES (122,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/employeePhotoInsert');</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="1" t="str">
         <f>A177</f>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/</v>
-      </c>
-      <c r="B178" s="1" t="str">
-        <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Update"),"")</f>
-        <v>employeePhotoUpdate</v>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C178" s="12">
         <f t="shared" si="24"/>
         <v>123</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J178" s="13" t="str">
         <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),IF(A178&lt;&gt;"",CONCATENATE("-- ",A178),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (123,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/employeePhotoUpdate');</v>
+        <v>INSERT INTO tserver_permission VALUES (123,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/employeePhotoDelete');</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="1" t="str">
         <f>A178</f>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/</v>
-      </c>
-      <c r="B179" s="1" t="str">
-        <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Delete"),"")</f>
-        <v>employeePhotoDelete</v>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C179" s="12">
         <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J179" s="13" t="str">
         <f>IF(B179&lt;&gt;"",CONCATENATE(inicio_consulta,C179,mid_consulta,A179,B179,fin_consulta),IF(A179&lt;&gt;"",CONCATENATE("-- ",A179),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (124,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/employeePhotoDelete');</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="A180" s="1" t="str">
-        <f>A179</f>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C180" s="12">
-        <f t="shared" si="24"/>
-        <v>125</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J180" s="13" t="str">
-        <f>IF(B180&lt;&gt;"",CONCATENATE(inicio_consulta,C180,mid_consulta,A180,B180,fin_consulta),IF(A180&lt;&gt;"",CONCATENATE("-- ",A180),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (125,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhoto/getPicture');</v>
+        <v>INSERT INTO tserver_permission VALUES (124,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeePhotoService/getPicture');</v>
       </c>
     </row>
     <row r="181" spans="10:10">
@@ -6261,12 +6266,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -6274,29 +6279,29 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6304,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G3" s="6">
         <v>123456</v>
@@ -6328,16 +6333,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G4" s="6">
         <v>123456</v>
@@ -6352,25 +6357,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G5" s="6">
         <v>123456</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6378,25 +6383,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G6" s="6">
         <v>123456</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6407,22 +6412,22 @@
         <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G7" s="6">
         <v>123456</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6433,59 +6438,59 @@
         <v>139</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G8" s="6">
         <v>123456</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="6:9">
       <c r="F9" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G9" s="6">
         <v>123456</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="6:9">
       <c r="F10" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G10" s="6">
         <v>123456</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="6:9">
       <c r="F11" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G11" s="6">
         <v>123456</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -6521,7 +6526,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -6534,7 +6539,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -7495,17 +7500,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
